--- a/data/pca/factorExposure/factorExposure_2015-05-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-05-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.02098833257120945</v>
+        <v>0.0118072865184085</v>
       </c>
       <c r="C2">
-        <v>0.02080113221463332</v>
+        <v>-0.05237387353869322</v>
       </c>
       <c r="D2">
-        <v>-0.1075320079717623</v>
+        <v>-0.1282723559592066</v>
       </c>
       <c r="E2">
-        <v>-0.01497974881681961</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02058043524414591</v>
+      </c>
+      <c r="F2">
+        <v>-0.0344342714971668</v>
+      </c>
+      <c r="G2">
+        <v>-0.1181741505272879</v>
+      </c>
+      <c r="H2">
+        <v>-0.09047967061409391</v>
+      </c>
+      <c r="I2">
+        <v>0.08658969632656306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.04338552409638853</v>
+        <v>0.01761052592534709</v>
       </c>
       <c r="C4">
-        <v>0.07036213153995252</v>
+        <v>-0.1054789355574587</v>
       </c>
       <c r="D4">
-        <v>-0.1206867940796382</v>
+        <v>-0.1321369014696164</v>
       </c>
       <c r="E4">
-        <v>-0.09160799760396154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01087364839948543</v>
+      </c>
+      <c r="F4">
+        <v>-0.09191680059923722</v>
+      </c>
+      <c r="G4">
+        <v>-0.002992132816306562</v>
+      </c>
+      <c r="H4">
+        <v>-0.0485260492964083</v>
+      </c>
+      <c r="I4">
+        <v>-0.07831141554144733</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02206902324335638</v>
+        <v>0.02790564645755154</v>
       </c>
       <c r="C6">
-        <v>0.01036495573175773</v>
+        <v>-0.03468718937950354</v>
       </c>
       <c r="D6">
-        <v>-0.1390147409789708</v>
+        <v>-0.124048711515543</v>
       </c>
       <c r="E6">
-        <v>-0.04874226248326432</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.06130952302207008</v>
+      </c>
+      <c r="F6">
+        <v>-0.0459620509672543</v>
+      </c>
+      <c r="G6">
+        <v>0.01178011339970516</v>
+      </c>
+      <c r="H6">
+        <v>-0.04238314287764147</v>
+      </c>
+      <c r="I6">
+        <v>-0.02838973850346391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.002540665568768627</v>
+        <v>0.008470320260729662</v>
       </c>
       <c r="C7">
-        <v>0.02244205793576914</v>
+        <v>-0.0378687272572473</v>
       </c>
       <c r="D7">
-        <v>-0.1096180947971975</v>
+        <v>-0.09581295893337481</v>
       </c>
       <c r="E7">
-        <v>-0.01174732706249593</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.05441102343027363</v>
+      </c>
+      <c r="F7">
+        <v>-0.009276330375025123</v>
+      </c>
+      <c r="G7">
+        <v>0.01750814119691012</v>
+      </c>
+      <c r="H7">
+        <v>-0.07591775051060026</v>
+      </c>
+      <c r="I7">
+        <v>-0.01136241623115512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.001961423906273362</v>
+        <v>-0.00829793487273125</v>
       </c>
       <c r="C8">
-        <v>0.02599838151867315</v>
+        <v>-0.03634623343694565</v>
       </c>
       <c r="D8">
-        <v>-0.08023280362807569</v>
+        <v>-0.07471521563351176</v>
       </c>
       <c r="E8">
-        <v>-0.02872581127979533</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.03745254453332331</v>
+      </c>
+      <c r="F8">
+        <v>-0.04995667968214201</v>
+      </c>
+      <c r="G8">
+        <v>-0.05949347479705343</v>
+      </c>
+      <c r="H8">
+        <v>-0.01521829220614372</v>
+      </c>
+      <c r="I8">
+        <v>0.009865657370594144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.03535493466788967</v>
+        <v>0.01327867499444044</v>
       </c>
       <c r="C9">
-        <v>0.05970486584083864</v>
+        <v>-0.08716194984486346</v>
       </c>
       <c r="D9">
-        <v>-0.1228373113542875</v>
+        <v>-0.1129485100243819</v>
       </c>
       <c r="E9">
-        <v>-0.07508833257889631</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01235133710335241</v>
+      </c>
+      <c r="F9">
+        <v>-0.06119435816161903</v>
+      </c>
+      <c r="G9">
+        <v>0.01929868311089071</v>
+      </c>
+      <c r="H9">
+        <v>-0.05823383442422285</v>
+      </c>
+      <c r="I9">
+        <v>-0.04428850379603311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.1772732998997417</v>
+        <v>0.2419775423934963</v>
       </c>
       <c r="C10">
-        <v>-0.1671704929812264</v>
+        <v>0.08953653358553766</v>
       </c>
       <c r="D10">
-        <v>0.005521401209294436</v>
+        <v>0.005359132908974822</v>
       </c>
       <c r="E10">
-        <v>-0.04379363649264286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01106451752061368</v>
+      </c>
+      <c r="F10">
+        <v>-0.04214144513187895</v>
+      </c>
+      <c r="G10">
+        <v>0.0002661848673317068</v>
+      </c>
+      <c r="H10">
+        <v>0.03548458882282424</v>
+      </c>
+      <c r="I10">
+        <v>0.06668499918493548</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.01944112421608355</v>
+        <v>0.01030937491868746</v>
       </c>
       <c r="C11">
-        <v>0.04178211506293212</v>
+        <v>-0.05813390200934636</v>
       </c>
       <c r="D11">
-        <v>-0.0459794582934997</v>
+        <v>-0.04018335371381614</v>
       </c>
       <c r="E11">
-        <v>0.01609459669285531</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.02008869105121016</v>
+      </c>
+      <c r="F11">
+        <v>0.01454647901188161</v>
+      </c>
+      <c r="G11">
+        <v>0.0157700720286269</v>
+      </c>
+      <c r="H11">
+        <v>-0.04914176275658298</v>
+      </c>
+      <c r="I11">
+        <v>-0.06154186616545013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.01918114691283447</v>
+        <v>0.01013986082762749</v>
       </c>
       <c r="C12">
-        <v>0.04133484785991325</v>
+        <v>-0.05087336751848105</v>
       </c>
       <c r="D12">
-        <v>-0.0601739314332153</v>
+        <v>-0.04507121986703284</v>
       </c>
       <c r="E12">
-        <v>0.004706864523971383</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.01554088894868275</v>
+      </c>
+      <c r="F12">
+        <v>0.01694411885385887</v>
+      </c>
+      <c r="G12">
+        <v>0.03398219532904019</v>
+      </c>
+      <c r="H12">
+        <v>-0.06583169016084595</v>
+      </c>
+      <c r="I12">
+        <v>-0.03652579005108846</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.004228302022459059</v>
+        <v>-0.002866847298228226</v>
       </c>
       <c r="C13">
-        <v>0.02183266811207268</v>
+        <v>-0.0479028011278055</v>
       </c>
       <c r="D13">
-        <v>-0.1352101309525271</v>
+        <v>-0.1471155402109418</v>
       </c>
       <c r="E13">
-        <v>-0.04309831903056049</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.0393129198413088</v>
+      </c>
+      <c r="F13">
+        <v>-0.0346411248252648</v>
+      </c>
+      <c r="G13">
+        <v>-0.01414875615090311</v>
+      </c>
+      <c r="H13">
+        <v>-0.07467097141837074</v>
+      </c>
+      <c r="I13">
+        <v>0.08988111400631457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.005370466546707846</v>
+        <v>0.001652676098883071</v>
       </c>
       <c r="C14">
-        <v>0.01545017789671124</v>
+        <v>-0.0311067487432653</v>
       </c>
       <c r="D14">
-        <v>-0.09205968883326272</v>
+        <v>-0.0985737678565166</v>
       </c>
       <c r="E14">
-        <v>-0.01721351863755776</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.05101333515625799</v>
+      </c>
+      <c r="F14">
+        <v>-0.03524507330945481</v>
+      </c>
+      <c r="G14">
+        <v>0.0001821231920113532</v>
+      </c>
+      <c r="H14">
+        <v>-0.1332419340312619</v>
+      </c>
+      <c r="I14">
+        <v>-0.001981053214223924</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.0029070126801541</v>
+        <v>-0.002776093769815994</v>
       </c>
       <c r="C15">
-        <v>0.01057390057435334</v>
+        <v>-0.02771017462139749</v>
       </c>
       <c r="D15">
-        <v>-0.03344737808305937</v>
+        <v>-0.06112528446779005</v>
       </c>
       <c r="E15">
-        <v>0.001025602581437012</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.0115118172525133</v>
+      </c>
+      <c r="F15">
+        <v>-0.007408096785937821</v>
+      </c>
+      <c r="G15">
+        <v>-0.01296246328167357</v>
+      </c>
+      <c r="H15">
+        <v>-0.04215980941010954</v>
+      </c>
+      <c r="I15">
+        <v>-0.02330327716330602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.01837203830559193</v>
+        <v>0.00954090763973914</v>
       </c>
       <c r="C16">
-        <v>0.0372842645063036</v>
+        <v>-0.05084012604491223</v>
       </c>
       <c r="D16">
-        <v>-0.05415648586568303</v>
+        <v>-0.04345009780186288</v>
       </c>
       <c r="E16">
-        <v>0.005524336388484876</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02258393372246918</v>
+      </c>
+      <c r="F16">
+        <v>0.008792486963777468</v>
+      </c>
+      <c r="G16">
+        <v>0.02592117222783454</v>
+      </c>
+      <c r="H16">
+        <v>-0.04610924428324637</v>
+      </c>
+      <c r="I16">
+        <v>-0.05834879918586278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.003272281438439917</v>
+        <v>-0.0003606163025780273</v>
       </c>
       <c r="C19">
-        <v>0.01797222187591755</v>
+        <v>-0.01698606437259616</v>
       </c>
       <c r="D19">
-        <v>-0.09522225646649118</v>
+        <v>-0.0610646659424028</v>
       </c>
       <c r="E19">
-        <v>-0.04644705680612567</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.01216041582685078</v>
+      </c>
+      <c r="F19">
+        <v>-0.01613872501179</v>
+      </c>
+      <c r="G19">
+        <v>-0.01101361470305168</v>
+      </c>
+      <c r="H19">
+        <v>-0.05568674489915756</v>
+      </c>
+      <c r="I19">
+        <v>0.03688063790191515</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.003161568246409812</v>
+        <v>0.005075094926238988</v>
       </c>
       <c r="C20">
-        <v>0.02433540048310685</v>
+        <v>-0.04209236271283973</v>
       </c>
       <c r="D20">
-        <v>-0.08027985431295083</v>
+        <v>-0.08771968539753798</v>
       </c>
       <c r="E20">
-        <v>-0.03634797926884873</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02331631919834626</v>
+      </c>
+      <c r="F20">
+        <v>-0.02643984203800937</v>
+      </c>
+      <c r="G20">
+        <v>0.01611042635792511</v>
+      </c>
+      <c r="H20">
+        <v>-0.0550458929161736</v>
+      </c>
+      <c r="I20">
+        <v>-0.0451419727305301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.006134647916298691</v>
+        <v>0.003549128754682314</v>
       </c>
       <c r="C21">
-        <v>0.02618965145818355</v>
+        <v>-0.04557656989695352</v>
       </c>
       <c r="D21">
-        <v>-0.1529702488834437</v>
+        <v>-0.128770811148824</v>
       </c>
       <c r="E21">
-        <v>-0.08749842168898248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03054034165437395</v>
+      </c>
+      <c r="F21">
+        <v>-0.09867180571287068</v>
+      </c>
+      <c r="G21">
+        <v>-0.01282154530179362</v>
+      </c>
+      <c r="H21">
+        <v>-0.1970552897217342</v>
+      </c>
+      <c r="I21">
+        <v>0.1411549544128421</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.0002855665829358533</v>
+        <v>-0.01441076038966165</v>
       </c>
       <c r="C22">
-        <v>0.06347868671846615</v>
+        <v>-0.08919324324160216</v>
       </c>
       <c r="D22">
-        <v>-0.2582874227144329</v>
+        <v>-0.2620033080729736</v>
       </c>
       <c r="E22">
-        <v>-0.003173573093015148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.06129114809478913</v>
+      </c>
+      <c r="F22">
+        <v>-0.00891597053604952</v>
+      </c>
+      <c r="G22">
+        <v>-0.40438711015739</v>
+      </c>
+      <c r="H22">
+        <v>0.3767987267398299</v>
+      </c>
+      <c r="I22">
+        <v>-0.05464852824470269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-9.851111757656478e-07</v>
+        <v>-0.0111955429065837</v>
       </c>
       <c r="C23">
-        <v>0.06395295643132062</v>
+        <v>-0.09091315278272435</v>
       </c>
       <c r="D23">
-        <v>-0.2577831784345027</v>
+        <v>-0.2646733373116554</v>
       </c>
       <c r="E23">
-        <v>-0.003436498519290188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.05642644250491523</v>
+      </c>
+      <c r="F23">
+        <v>-0.01214906837488289</v>
+      </c>
+      <c r="G23">
+        <v>-0.3919646895784343</v>
+      </c>
+      <c r="H23">
+        <v>0.362009086937694</v>
+      </c>
+      <c r="I23">
+        <v>-0.04528758244070061</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.02378915483680955</v>
+        <v>0.009971524770383636</v>
       </c>
       <c r="C24">
-        <v>0.05726438085895075</v>
+        <v>-0.0673963061403407</v>
       </c>
       <c r="D24">
-        <v>-0.06323584728506511</v>
+        <v>-0.04646425836539682</v>
       </c>
       <c r="E24">
-        <v>0.002513806983440529</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.02916198863365337</v>
+      </c>
+      <c r="F24">
+        <v>0.004658431042340465</v>
+      </c>
+      <c r="G24">
+        <v>0.01518799750643679</v>
+      </c>
+      <c r="H24">
+        <v>-0.07240602880789132</v>
+      </c>
+      <c r="I24">
+        <v>-0.05436765591383427</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.02435396820541274</v>
+        <v>0.0140598730230761</v>
       </c>
       <c r="C25">
-        <v>0.04881286420091567</v>
+        <v>-0.0617799071265363</v>
       </c>
       <c r="D25">
-        <v>-0.0577177409978667</v>
+        <v>-0.04844585651028873</v>
       </c>
       <c r="E25">
-        <v>-0.003024487219364941</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.014664647495021</v>
+      </c>
+      <c r="F25">
+        <v>0.006123345361245948</v>
+      </c>
+      <c r="G25">
+        <v>0.01682134148068144</v>
+      </c>
+      <c r="H25">
+        <v>-0.03677628428455882</v>
+      </c>
+      <c r="I25">
+        <v>-0.03602353645633541</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.006348711226807829</v>
+        <v>0.01456387775832387</v>
       </c>
       <c r="C26">
-        <v>0.0141496428538657</v>
+        <v>-0.02712739039339278</v>
       </c>
       <c r="D26">
-        <v>-0.08330590852866199</v>
+        <v>-0.06795311102611236</v>
       </c>
       <c r="E26">
-        <v>-0.02426337809838836</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.04428431240873522</v>
+      </c>
+      <c r="F26">
+        <v>-0.04338001484250961</v>
+      </c>
+      <c r="G26">
+        <v>0.01250423908889064</v>
+      </c>
+      <c r="H26">
+        <v>-0.09878712372628719</v>
+      </c>
+      <c r="I26">
+        <v>0.02997991860000628</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.262495175138439</v>
+        <v>0.3200415608996592</v>
       </c>
       <c r="C28">
-        <v>-0.1934802544650599</v>
+        <v>0.08884922322620767</v>
       </c>
       <c r="D28">
-        <v>-0.01294487575166984</v>
+        <v>0.01660815676246172</v>
       </c>
       <c r="E28">
-        <v>-0.05547586826460946</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.04965622355394905</v>
+      </c>
+      <c r="F28">
+        <v>-0.04601211218708381</v>
+      </c>
+      <c r="G28">
+        <v>-0.05301414686513118</v>
+      </c>
+      <c r="H28">
+        <v>0.003517675679918766</v>
+      </c>
+      <c r="I28">
+        <v>0.09363633019064667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.001832141614034319</v>
+        <v>0.001140434756095128</v>
       </c>
       <c r="C29">
-        <v>0.01992970132012821</v>
+        <v>-0.03639329634806431</v>
       </c>
       <c r="D29">
-        <v>-0.09476053230208371</v>
+        <v>-0.1027199994317393</v>
       </c>
       <c r="E29">
-        <v>-0.02518687846286571</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.05806567374542712</v>
+      </c>
+      <c r="F29">
+        <v>-0.03998688545638872</v>
+      </c>
+      <c r="G29">
+        <v>0.0142397940276241</v>
+      </c>
+      <c r="H29">
+        <v>-0.1385075841478854</v>
+      </c>
+      <c r="I29">
+        <v>-0.01461620794040489</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.02313089670934591</v>
+        <v>0.01437344732936021</v>
       </c>
       <c r="C30">
-        <v>0.05868564984202775</v>
+        <v>-0.08762606400492479</v>
       </c>
       <c r="D30">
-        <v>-0.1629518322832872</v>
+        <v>-0.1452616965253335</v>
       </c>
       <c r="E30">
-        <v>-0.03355419361693012</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05486498274499271</v>
+      </c>
+      <c r="F30">
+        <v>-0.02784827349871149</v>
+      </c>
+      <c r="G30">
+        <v>-0.01710106986376009</v>
+      </c>
+      <c r="H30">
+        <v>-0.05243356093005513</v>
+      </c>
+      <c r="I30">
+        <v>-0.08157638332546688</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.03629143340120465</v>
+        <v>0.008256395818054296</v>
       </c>
       <c r="C31">
-        <v>0.08492789442462506</v>
+        <v>-0.09501972153117876</v>
       </c>
       <c r="D31">
-        <v>-0.06743092868189014</v>
+        <v>-0.03957558862663409</v>
       </c>
       <c r="E31">
-        <v>-0.01710463726401885</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.01965906707740868</v>
+      </c>
+      <c r="F31">
+        <v>-0.01433944063683666</v>
+      </c>
+      <c r="G31">
+        <v>0.005216158805930066</v>
+      </c>
+      <c r="H31">
+        <v>-0.0486868724710864</v>
+      </c>
+      <c r="I31">
+        <v>0.03016147334439846</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.0168646099721108</v>
+        <v>0.009741778786318737</v>
       </c>
       <c r="C32">
-        <v>0.03080641530445337</v>
+        <v>-0.04724853080431478</v>
       </c>
       <c r="D32">
-        <v>-0.08619839931803244</v>
+        <v>-0.1029974370935935</v>
       </c>
       <c r="E32">
-        <v>-0.07083860181783755</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.002151934528534554</v>
+      </c>
+      <c r="F32">
+        <v>-0.05548284104463879</v>
+      </c>
+      <c r="G32">
+        <v>-0.008321877813438494</v>
+      </c>
+      <c r="H32">
+        <v>-0.05706366139869951</v>
+      </c>
+      <c r="I32">
+        <v>0.09393721811989522</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.009006208809074861</v>
+        <v>0.00549171209422203</v>
       </c>
       <c r="C33">
-        <v>0.04021988965214028</v>
+        <v>-0.06115962563926566</v>
       </c>
       <c r="D33">
-        <v>-0.1341452639497505</v>
+        <v>-0.1218025156785759</v>
       </c>
       <c r="E33">
-        <v>-0.04684868219929427</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02862562725037655</v>
+      </c>
+      <c r="F33">
+        <v>-0.02664087889937186</v>
+      </c>
+      <c r="G33">
+        <v>0.008317404165584786</v>
+      </c>
+      <c r="H33">
+        <v>-0.06521478677934679</v>
+      </c>
+      <c r="I33">
+        <v>-0.008805676319592764</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.02082195246117669</v>
+        <v>0.007485486480934487</v>
       </c>
       <c r="C34">
-        <v>0.05917584448838172</v>
+        <v>-0.06247262719878242</v>
       </c>
       <c r="D34">
-        <v>-0.05436008955392688</v>
+        <v>-0.02699397734188519</v>
       </c>
       <c r="E34">
-        <v>0.0452769436324927</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02949087098264392</v>
+      </c>
+      <c r="F34">
+        <v>0.03962188861684605</v>
+      </c>
+      <c r="G34">
+        <v>0.01789440222107762</v>
+      </c>
+      <c r="H34">
+        <v>-0.05371135751977284</v>
+      </c>
+      <c r="I34">
+        <v>-0.02894558233506482</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.002464534197650576</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.01150935320977201</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.03327650228157913</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.004031278658310951</v>
+      </c>
+      <c r="F35">
+        <v>-0.01792835944415123</v>
+      </c>
+      <c r="G35">
+        <v>0.008444368625093486</v>
+      </c>
+      <c r="H35">
+        <v>-0.05368741818974964</v>
+      </c>
+      <c r="I35">
+        <v>-0.02396581092775296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.006725471573988239</v>
+        <v>0.01131974590193009</v>
       </c>
       <c r="C36">
-        <v>0.005650309679150043</v>
+        <v>-0.02250243954906603</v>
       </c>
       <c r="D36">
-        <v>-0.08239754982725407</v>
+        <v>-0.07492498276661431</v>
       </c>
       <c r="E36">
-        <v>-0.048748026127236</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.02835083622362318</v>
+      </c>
+      <c r="F36">
+        <v>-0.04977346836890886</v>
+      </c>
+      <c r="G36">
+        <v>0.004307407992019762</v>
+      </c>
+      <c r="H36">
+        <v>-0.06664454961383108</v>
+      </c>
+      <c r="I36">
+        <v>0.01681725054541501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.006289268238073816</v>
+        <v>0.01189982795240893</v>
       </c>
       <c r="C38">
-        <v>0.006048735756462613</v>
+        <v>-0.02447563771012885</v>
       </c>
       <c r="D38">
-        <v>-0.08820694135212569</v>
+        <v>-0.08658033684513859</v>
       </c>
       <c r="E38">
-        <v>-0.01181856123970693</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.005699350588910941</v>
+      </c>
+      <c r="F38">
+        <v>-0.00172195924453486</v>
+      </c>
+      <c r="G38">
+        <v>-0.01753844972142175</v>
+      </c>
+      <c r="H38">
+        <v>-0.06857930248241059</v>
+      </c>
+      <c r="I38">
+        <v>0.004177917848869479</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.01574496088816943</v>
+        <v>0.003785955587298002</v>
       </c>
       <c r="C39">
-        <v>0.05734020734772166</v>
+        <v>-0.07741348295093714</v>
       </c>
       <c r="D39">
-        <v>-0.1152668734114713</v>
+        <v>-0.09208849417918309</v>
       </c>
       <c r="E39">
-        <v>0.00590558556757153</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.05295383800003394</v>
+      </c>
+      <c r="F39">
+        <v>0.004933704748686026</v>
+      </c>
+      <c r="G39">
+        <v>0.02442167472491194</v>
+      </c>
+      <c r="H39">
+        <v>-0.1037544021731628</v>
+      </c>
+      <c r="I39">
+        <v>-0.08085055836058229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.01522631862550328</v>
+        <v>0.01288392485547931</v>
       </c>
       <c r="C40">
-        <v>0.02203483048886401</v>
+        <v>-0.03701827277119569</v>
       </c>
       <c r="D40">
-        <v>-0.1108688677619401</v>
+        <v>-0.09562461450816516</v>
       </c>
       <c r="E40">
-        <v>0.003915365687733293</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.03887117595424406</v>
+      </c>
+      <c r="F40">
+        <v>0.01154809619736785</v>
+      </c>
+      <c r="G40">
+        <v>-0.06282813221332023</v>
+      </c>
+      <c r="H40">
+        <v>-0.1053970202441586</v>
+      </c>
+      <c r="I40">
+        <v>0.06414189250040327</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.01004915344156798</v>
+        <v>0.01538403288706109</v>
       </c>
       <c r="C41">
-        <v>0.003880581626311109</v>
+        <v>-0.0193448503141451</v>
       </c>
       <c r="D41">
-        <v>-0.03843228943571189</v>
+        <v>-0.04453529354685164</v>
       </c>
       <c r="E41">
-        <v>-0.02980406169863927</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.005175857792819111</v>
+      </c>
+      <c r="F41">
+        <v>-0.02426092676845744</v>
+      </c>
+      <c r="G41">
+        <v>-0.0007874364166945211</v>
+      </c>
+      <c r="H41">
+        <v>-0.04491422894874479</v>
+      </c>
+      <c r="I41">
+        <v>0.00837758984734719</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.001663265289743107</v>
+        <v>0.008071254203875654</v>
       </c>
       <c r="C43">
-        <v>0.003950159300285027</v>
+        <v>-0.01588994906282518</v>
       </c>
       <c r="D43">
-        <v>-0.05065584349858217</v>
+        <v>-0.05088990871131292</v>
       </c>
       <c r="E43">
-        <v>-0.02196471401815002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01085283231066019</v>
+      </c>
+      <c r="F43">
+        <v>-0.02047190074342733</v>
+      </c>
+      <c r="G43">
+        <v>-0.002784530504528804</v>
+      </c>
+      <c r="H43">
+        <v>-0.05470436717024264</v>
+      </c>
+      <c r="I43">
+        <v>-0.01524711400004279</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.01777731825415443</v>
+        <v>0.01188252014909854</v>
       </c>
       <c r="C44">
-        <v>0.02462680949438424</v>
+        <v>-0.04919862625877869</v>
       </c>
       <c r="D44">
-        <v>-0.09130776910906267</v>
+        <v>-0.1023068386837284</v>
       </c>
       <c r="E44">
-        <v>-0.05005127760963466</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.03581422804207079</v>
+      </c>
+      <c r="F44">
+        <v>-0.03589965531042504</v>
+      </c>
+      <c r="G44">
+        <v>-0.02895408469911188</v>
+      </c>
+      <c r="H44">
+        <v>-0.05255323536191343</v>
+      </c>
+      <c r="I44">
+        <v>-0.04958000483298883</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.005693578812460014</v>
+        <v>-0.0007211800990786004</v>
       </c>
       <c r="C46">
-        <v>0.02873195347777927</v>
+        <v>-0.04160301752428581</v>
       </c>
       <c r="D46">
-        <v>-0.08368950171844168</v>
+        <v>-0.07103672740716713</v>
       </c>
       <c r="E46">
-        <v>-0.02054971061825279</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.04323168875477158</v>
+      </c>
+      <c r="F46">
+        <v>-0.03251278669498102</v>
+      </c>
+      <c r="G46">
+        <v>-0.002855069522378736</v>
+      </c>
+      <c r="H46">
+        <v>-0.1292128111936072</v>
+      </c>
+      <c r="I46">
+        <v>-0.02211430424623848</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.0773314003779929</v>
+        <v>0.03128768544321199</v>
       </c>
       <c r="C47">
-        <v>0.1071590900552967</v>
+        <v>-0.1266813568592617</v>
       </c>
       <c r="D47">
-        <v>-0.05957027761341723</v>
+        <v>-0.0254521608892582</v>
       </c>
       <c r="E47">
-        <v>-0.0345083418701887</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.008560733869758645</v>
+      </c>
+      <c r="F47">
+        <v>0.002684795690128349</v>
+      </c>
+      <c r="G47">
+        <v>0.04785434540242117</v>
+      </c>
+      <c r="H47">
+        <v>-0.05757308279587476</v>
+      </c>
+      <c r="I47">
+        <v>0.07499700538068921</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.008185241200590462</v>
+        <v>0.0128532008954357</v>
       </c>
       <c r="C48">
-        <v>0.01519162067643953</v>
+        <v>-0.03272519793136661</v>
       </c>
       <c r="D48">
-        <v>-0.08609258219585399</v>
+        <v>-0.0802255808550795</v>
       </c>
       <c r="E48">
-        <v>-0.05813696843751136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.02324830354101859</v>
+      </c>
+      <c r="F48">
+        <v>-0.05878054905760125</v>
+      </c>
+      <c r="G48">
+        <v>0.004611666694094524</v>
+      </c>
+      <c r="H48">
+        <v>-0.1085457046614285</v>
+      </c>
+      <c r="I48">
+        <v>-0.00257387927413336</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.03386234523897162</v>
+        <v>0.01236340966724483</v>
       </c>
       <c r="C50">
-        <v>0.05836143125097634</v>
+        <v>-0.07626041959037579</v>
       </c>
       <c r="D50">
-        <v>-0.06250622895768849</v>
+        <v>-0.04891453106649516</v>
       </c>
       <c r="E50">
-        <v>-0.01128867644373595</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01334021269174485</v>
+      </c>
+      <c r="F50">
+        <v>-0.008180414595765479</v>
+      </c>
+      <c r="G50">
+        <v>-0.004194456722960865</v>
+      </c>
+      <c r="H50">
+        <v>-0.03764415952244338</v>
+      </c>
+      <c r="I50">
+        <v>0.04628001702345032</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.002305966981167845</v>
+        <v>-0.001045321770868239</v>
       </c>
       <c r="C51">
-        <v>0.004513604561053743</v>
+        <v>-0.01704382469412031</v>
       </c>
       <c r="D51">
-        <v>-0.05578909762720881</v>
+        <v>-0.05730615876281191</v>
       </c>
       <c r="E51">
-        <v>-0.01008090862681447</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.03703020143012658</v>
+      </c>
+      <c r="F51">
+        <v>-0.04114672241422056</v>
+      </c>
+      <c r="G51">
+        <v>-0.0207741943153991</v>
+      </c>
+      <c r="H51">
+        <v>-0.05424654437332483</v>
+      </c>
+      <c r="I51">
+        <v>0.01075421110663439</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.106188884654748</v>
+        <v>0.05237866509451667</v>
       </c>
       <c r="C53">
-        <v>0.127177396585586</v>
+        <v>-0.1573284608006203</v>
       </c>
       <c r="D53">
-        <v>-0.003715640309204845</v>
+        <v>0.02480793078690541</v>
       </c>
       <c r="E53">
-        <v>-0.05781098125526642</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02954655816626897</v>
+      </c>
+      <c r="F53">
+        <v>-0.04850476308051231</v>
+      </c>
+      <c r="G53">
+        <v>0.0001895313346491708</v>
+      </c>
+      <c r="H53">
+        <v>-0.009486761744426414</v>
+      </c>
+      <c r="I53">
+        <v>0.03214187370328411</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.01010064120801149</v>
+        <v>0.009860508266882683</v>
       </c>
       <c r="C54">
-        <v>0.01951876600373638</v>
+        <v>-0.03724855510648038</v>
       </c>
       <c r="D54">
-        <v>-0.08957672287189247</v>
+        <v>-0.07638971961062344</v>
       </c>
       <c r="E54">
-        <v>-0.009267852682998177</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01736457291311482</v>
+      </c>
+      <c r="F54">
+        <v>-0.001095544740716217</v>
+      </c>
+      <c r="G54">
+        <v>-0.009433405780019334</v>
+      </c>
+      <c r="H54">
+        <v>-0.07879063262160384</v>
+      </c>
+      <c r="I54">
+        <v>-0.02248107715011376</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.09315429183807576</v>
+        <v>0.04066425453104657</v>
       </c>
       <c r="C55">
-        <v>0.1077219075853505</v>
+        <v>-0.1317246696965764</v>
       </c>
       <c r="D55">
-        <v>-0.006381983421866085</v>
+        <v>0.03260071762374248</v>
       </c>
       <c r="E55">
-        <v>-0.008242616663818467</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.005869347919951533</v>
+      </c>
+      <c r="F55">
+        <v>-0.0120847417173385</v>
+      </c>
+      <c r="G55">
+        <v>-0.002224844429037009</v>
+      </c>
+      <c r="H55">
+        <v>-0.01675379246075395</v>
+      </c>
+      <c r="I55">
+        <v>0.04861574176852686</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1314682061799598</v>
+        <v>0.05612619448563958</v>
       </c>
       <c r="C56">
-        <v>0.14633933511822</v>
+        <v>-0.1910440548220664</v>
       </c>
       <c r="D56">
-        <v>-0.002641962973269415</v>
+        <v>0.03342728964624062</v>
       </c>
       <c r="E56">
-        <v>-0.007169505130214506</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.0300923641327702</v>
+      </c>
+      <c r="F56">
+        <v>-0.01458813752572557</v>
+      </c>
+      <c r="G56">
+        <v>-0.04864268076573246</v>
+      </c>
+      <c r="H56">
+        <v>-0.01403904591434997</v>
+      </c>
+      <c r="I56">
+        <v>0.06512490990695426</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.005750236342247598</v>
+        <v>0.005347470377815759</v>
       </c>
       <c r="C58">
-        <v>0.008671119552792783</v>
+        <v>-0.0549174377916325</v>
       </c>
       <c r="D58">
-        <v>-0.2142824624285499</v>
+        <v>-0.2834411533291639</v>
       </c>
       <c r="E58">
-        <v>-0.09418116731357554</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.01703053318859302</v>
+      </c>
+      <c r="F58">
+        <v>-0.1077269945818894</v>
+      </c>
+      <c r="G58">
+        <v>-0.157024445741572</v>
+      </c>
+      <c r="H58">
+        <v>0.1027644678649487</v>
+      </c>
+      <c r="I58">
+        <v>-0.06000962509541207</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1844977584751155</v>
+        <v>0.2538253138291947</v>
       </c>
       <c r="C59">
-        <v>-0.1444828011297142</v>
+        <v>0.05952007888576213</v>
       </c>
       <c r="D59">
-        <v>-0.04362303844581847</v>
+        <v>-0.05670710438339496</v>
       </c>
       <c r="E59">
-        <v>-0.03703815212136732</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.02025209089612497</v>
+      </c>
+      <c r="F59">
+        <v>-0.0231429482305025</v>
+      </c>
+      <c r="G59">
+        <v>-0.007453847017134934</v>
+      </c>
+      <c r="H59">
+        <v>-0.003073828398196896</v>
+      </c>
+      <c r="I59">
+        <v>0.06382018649336579</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1817431924456869</v>
+        <v>0.1480029503301789</v>
       </c>
       <c r="C60">
-        <v>0.1054961764910462</v>
+        <v>-0.1746997088927089</v>
       </c>
       <c r="D60">
-        <v>-0.2204234226111857</v>
+        <v>-0.09201073963746091</v>
       </c>
       <c r="E60">
-        <v>0.1348393002349467</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1620949796226374</v>
+      </c>
+      <c r="F60">
+        <v>0.2228771433496824</v>
+      </c>
+      <c r="G60">
+        <v>0.2192170129553796</v>
+      </c>
+      <c r="H60">
+        <v>0.237372500601336</v>
+      </c>
+      <c r="I60">
+        <v>0.0736164035657039</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.02596435023573896</v>
+        <v>0.01163659443443642</v>
       </c>
       <c r="C61">
-        <v>0.05273216916635995</v>
+        <v>-0.07462852587238021</v>
       </c>
       <c r="D61">
-        <v>-0.09467710238443479</v>
+        <v>-0.07366767232699563</v>
       </c>
       <c r="E61">
-        <v>0.001791721700921473</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03781606619794788</v>
+      </c>
+      <c r="F61">
+        <v>0.0139720668455321</v>
+      </c>
+      <c r="G61">
+        <v>0.03716031734571298</v>
+      </c>
+      <c r="H61">
+        <v>-0.08715355455090357</v>
+      </c>
+      <c r="I61">
+        <v>-0.03649921238241525</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.006559753002300316</v>
+        <v>0.008991238148694229</v>
       </c>
       <c r="C63">
-        <v>0.02343840211849936</v>
+        <v>-0.03712296639911546</v>
       </c>
       <c r="D63">
-        <v>-0.09744589806354216</v>
+        <v>-0.06824642434883536</v>
       </c>
       <c r="E63">
-        <v>-0.02302566180896042</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.05834452713061353</v>
+      </c>
+      <c r="F63">
+        <v>-0.02618870279682406</v>
+      </c>
+      <c r="G63">
+        <v>0.007441125517264758</v>
+      </c>
+      <c r="H63">
+        <v>-0.07060820370152242</v>
+      </c>
+      <c r="I63">
+        <v>-0.02819121782853709</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.0545096298306998</v>
+        <v>0.01607297784690955</v>
       </c>
       <c r="C64">
-        <v>0.08377759960743589</v>
+        <v>-0.1047023340937374</v>
       </c>
       <c r="D64">
-        <v>-0.02812566296120848</v>
+        <v>-0.01330699675048846</v>
       </c>
       <c r="E64">
-        <v>-0.01456838942531389</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02528801681237526</v>
+      </c>
+      <c r="F64">
+        <v>-0.01571896185893735</v>
+      </c>
+      <c r="G64">
+        <v>0.05173301287968141</v>
+      </c>
+      <c r="H64">
+        <v>-0.0761704520498028</v>
+      </c>
+      <c r="I64">
+        <v>-0.07861876120315572</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.02506906131481631</v>
+        <v>0.02086013836505278</v>
       </c>
       <c r="C65">
-        <v>0.01442334640208139</v>
+        <v>-0.04366667499031956</v>
       </c>
       <c r="D65">
-        <v>-0.1133688480322608</v>
+        <v>-0.1157469573027498</v>
       </c>
       <c r="E65">
-        <v>-0.01433098202787827</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.04444297757275881</v>
+      </c>
+      <c r="F65">
+        <v>0.006750458562635877</v>
+      </c>
+      <c r="G65">
+        <v>0.0300343776184458</v>
+      </c>
+      <c r="H65">
+        <v>-0.01341717230174556</v>
+      </c>
+      <c r="I65">
+        <v>-0.05490155225481583</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.02062244629600787</v>
+        <v>0.0009174790376750956</v>
       </c>
       <c r="C66">
-        <v>0.06618135566746668</v>
+        <v>-0.09622135129881075</v>
       </c>
       <c r="D66">
-        <v>-0.1233613943316543</v>
+        <v>-0.1181539889471315</v>
       </c>
       <c r="E66">
-        <v>0.009671536007546415</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.041677675825269</v>
+      </c>
+      <c r="F66">
+        <v>0.01079761239189649</v>
+      </c>
+      <c r="G66">
+        <v>-0.003230195771565607</v>
+      </c>
+      <c r="H66">
+        <v>-0.06935816016990674</v>
+      </c>
+      <c r="I66">
+        <v>-0.06961708930415823</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.0239909910465684</v>
+        <v>0.0214695593068537</v>
       </c>
       <c r="C67">
-        <v>0.01999899417758895</v>
+        <v>-0.03595206874869265</v>
       </c>
       <c r="D67">
-        <v>-0.04757155460409758</v>
+        <v>-0.04189632535136395</v>
       </c>
       <c r="E67">
-        <v>0.01691225301332619</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.01181125662850023</v>
+      </c>
+      <c r="F67">
+        <v>0.02706277766892041</v>
+      </c>
+      <c r="G67">
+        <v>-0.002324693618382333</v>
+      </c>
+      <c r="H67">
+        <v>-0.06943484159056769</v>
+      </c>
+      <c r="I67">
+        <v>-0.001752288002612627</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.207182897967086</v>
+        <v>0.27482537396581</v>
       </c>
       <c r="C68">
-        <v>-0.1532485923307951</v>
+        <v>0.06633933102270567</v>
       </c>
       <c r="D68">
-        <v>-0.03065703227755963</v>
+        <v>-0.02682534308642082</v>
       </c>
       <c r="E68">
-        <v>-0.01111560501894043</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.003936668596319541</v>
+      </c>
+      <c r="F68">
+        <v>-0.02577979149622352</v>
+      </c>
+      <c r="G68">
+        <v>-0.07059751669221855</v>
+      </c>
+      <c r="H68">
+        <v>0.04876651387852303</v>
+      </c>
+      <c r="I68">
+        <v>0.08811570654358346</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.05304212818128049</v>
+        <v>0.0159237047789239</v>
       </c>
       <c r="C69">
-        <v>0.1173683792826031</v>
+        <v>-0.1185840399253668</v>
       </c>
       <c r="D69">
-        <v>-0.07643116615708251</v>
+        <v>-0.02725613128760326</v>
       </c>
       <c r="E69">
-        <v>-0.01738226683601856</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.008982025031757946</v>
+      </c>
+      <c r="F69">
+        <v>0.008005663530609613</v>
+      </c>
+      <c r="G69">
+        <v>0.02588809597998553</v>
+      </c>
+      <c r="H69">
+        <v>-0.04536377635949471</v>
+      </c>
+      <c r="I69">
+        <v>0.04668244236705432</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2175950511409486</v>
+        <v>0.2761663228104921</v>
       </c>
       <c r="C71">
-        <v>-0.175992036141647</v>
+        <v>0.07881703290561028</v>
       </c>
       <c r="D71">
-        <v>-0.01418840100763931</v>
+        <v>-0.01563549957343165</v>
       </c>
       <c r="E71">
-        <v>-0.01206324023835683</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.002755654426945435</v>
+      </c>
+      <c r="F71">
+        <v>-0.02050918051456138</v>
+      </c>
+      <c r="G71">
+        <v>-0.03988924718587943</v>
+      </c>
+      <c r="H71">
+        <v>-0.01894046379017833</v>
+      </c>
+      <c r="I71">
+        <v>0.1001752482263049</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1001936540098158</v>
+        <v>0.05473725741548721</v>
       </c>
       <c r="C72">
-        <v>0.07961425820945572</v>
+        <v>-0.1276754834375434</v>
       </c>
       <c r="D72">
-        <v>-0.112242038014215</v>
+        <v>-0.05807251516915438</v>
       </c>
       <c r="E72">
-        <v>0.03150661339163199</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.06800388897674069</v>
+      </c>
+      <c r="F72">
+        <v>0.02479771423690517</v>
+      </c>
+      <c r="G72">
+        <v>0.04066026461088313</v>
+      </c>
+      <c r="H72">
+        <v>-0.05010314980673149</v>
+      </c>
+      <c r="I72">
+        <v>-0.06124361278429682</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1694641280513859</v>
+        <v>0.1380131629907146</v>
       </c>
       <c r="C73">
-        <v>0.07153944648379749</v>
+        <v>-0.1499552998554027</v>
       </c>
       <c r="D73">
-        <v>-0.2922373586819094</v>
+        <v>-0.1013031655707902</v>
       </c>
       <c r="E73">
-        <v>0.2034111462903239</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2853103470662118</v>
+      </c>
+      <c r="F73">
+        <v>0.3102988680339719</v>
+      </c>
+      <c r="G73">
+        <v>0.3902914787833739</v>
+      </c>
+      <c r="H73">
+        <v>0.178279485739248</v>
+      </c>
+      <c r="I73">
+        <v>-0.005076000359202071</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1050561539620393</v>
+        <v>0.04815266700458947</v>
       </c>
       <c r="C74">
-        <v>0.1178440077650164</v>
+        <v>-0.1455067046090099</v>
       </c>
       <c r="D74">
-        <v>0.02012571310787389</v>
+        <v>0.0440527713017758</v>
       </c>
       <c r="E74">
-        <v>-0.03722655669075894</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01109699231920191</v>
+      </c>
+      <c r="F74">
+        <v>-0.03468803594926129</v>
+      </c>
+      <c r="G74">
+        <v>0.006760050096376737</v>
+      </c>
+      <c r="H74">
+        <v>0.01202951896163709</v>
+      </c>
+      <c r="I74">
+        <v>0.0775911852623955</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2275606495807257</v>
+        <v>0.1032656357932068</v>
       </c>
       <c r="C75">
-        <v>0.204355856863218</v>
+        <v>-0.2680855936884308</v>
       </c>
       <c r="D75">
-        <v>0.1048423262615774</v>
+        <v>0.1359445816928586</v>
       </c>
       <c r="E75">
-        <v>0.03920087730488386</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.09099566449966277</v>
+      </c>
+      <c r="F75">
+        <v>0.02737260931492445</v>
+      </c>
+      <c r="G75">
+        <v>-0.1003352127036521</v>
+      </c>
+      <c r="H75">
+        <v>-0.02337999511867636</v>
+      </c>
+      <c r="I75">
+        <v>0.06122074396121383</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1375121779190644</v>
+        <v>0.05967768260743829</v>
       </c>
       <c r="C76">
-        <v>0.1413420126893135</v>
+        <v>-0.1822908892552484</v>
       </c>
       <c r="D76">
-        <v>-0.007540776371933025</v>
+        <v>0.0433663641780806</v>
       </c>
       <c r="E76">
-        <v>-0.006436845533515158</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02277311357651495</v>
+      </c>
+      <c r="F76">
+        <v>-0.002422331156640013</v>
+      </c>
+      <c r="G76">
+        <v>-0.03534636241045757</v>
+      </c>
+      <c r="H76">
+        <v>-0.03714726206851544</v>
+      </c>
+      <c r="I76">
+        <v>0.0496227795643422</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.02110920416383995</v>
+        <v>0.0007569780311188903</v>
       </c>
       <c r="C77">
-        <v>0.06817959672544112</v>
+        <v>-0.1086632717191968</v>
       </c>
       <c r="D77">
-        <v>0.03747030623454255</v>
+        <v>-0.3144857981051122</v>
       </c>
       <c r="E77">
-        <v>-0.1865074727217491</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.842180923268104</v>
+      </c>
+      <c r="F77">
+        <v>0.2193105796571135</v>
+      </c>
+      <c r="G77">
+        <v>0.1998095392834357</v>
+      </c>
+      <c r="H77">
+        <v>0.1556863691518386</v>
+      </c>
+      <c r="I77">
+        <v>0.01670859646494651</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.02700947726380384</v>
+        <v>0.01598818436309828</v>
       </c>
       <c r="C78">
-        <v>0.0707280289822792</v>
+        <v>-0.09214138610252361</v>
       </c>
       <c r="D78">
-        <v>-0.1445426909716347</v>
+        <v>-0.1114629925716925</v>
       </c>
       <c r="E78">
-        <v>-0.04882206609802867</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.06749151696258333</v>
+      </c>
+      <c r="F78">
+        <v>-0.04376858969401428</v>
+      </c>
+      <c r="G78">
+        <v>-0.03857566219356259</v>
+      </c>
+      <c r="H78">
+        <v>-0.03765560388909694</v>
+      </c>
+      <c r="I78">
+        <v>0.1026866260252411</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.09460099220400786</v>
+        <v>0.03503403054600614</v>
       </c>
       <c r="C79">
-        <v>0.1791212446443011</v>
+        <v>-0.1952912340230523</v>
       </c>
       <c r="D79">
-        <v>0.1504151201286288</v>
+        <v>0.08054845474605855</v>
       </c>
       <c r="E79">
-        <v>-0.8187065069484899</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.05172937170130509</v>
+      </c>
+      <c r="F79">
+        <v>-0.7789313929650911</v>
+      </c>
+      <c r="G79">
+        <v>0.3730651939002606</v>
+      </c>
+      <c r="H79">
+        <v>0.3289249187500322</v>
+      </c>
+      <c r="I79">
+        <v>-0.1022888556977957</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.003282181346011334</v>
+        <v>0.004279200684156239</v>
       </c>
       <c r="C80">
-        <v>0.04519341309788553</v>
+        <v>-0.04641933187182241</v>
       </c>
       <c r="D80">
-        <v>-0.0538132317978751</v>
+        <v>-0.04056460044516332</v>
       </c>
       <c r="E80">
-        <v>0.003303086514388883</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04572226856318177</v>
+      </c>
+      <c r="F80">
+        <v>-0.005461581711102521</v>
+      </c>
+      <c r="G80">
+        <v>-0.006845095954464369</v>
+      </c>
+      <c r="H80">
+        <v>-0.03283078894107449</v>
+      </c>
+      <c r="I80">
+        <v>0.07547608467114333</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.117430534875168</v>
+        <v>0.04249960621478688</v>
       </c>
       <c r="C81">
-        <v>0.1373683667914044</v>
+        <v>-0.1673058978408501</v>
       </c>
       <c r="D81">
-        <v>0.07620400468992616</v>
+        <v>0.08147636907945369</v>
       </c>
       <c r="E81">
-        <v>-0.04737338652853386</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.04904703154864851</v>
+      </c>
+      <c r="F81">
+        <v>-0.06448770006415738</v>
+      </c>
+      <c r="G81">
+        <v>-0.04821416350136524</v>
+      </c>
+      <c r="H81">
+        <v>-0.07776583608866272</v>
+      </c>
+      <c r="I81">
+        <v>0.084045005194553</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.2450978945515804</v>
+        <v>0.08728473520973336</v>
       </c>
       <c r="C82">
-        <v>0.3017743589623963</v>
+        <v>-0.319638682466909</v>
       </c>
       <c r="D82">
-        <v>0.2026201113329951</v>
+        <v>0.2448206415162752</v>
       </c>
       <c r="E82">
-        <v>0.1642214827197806</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.0619757204659277</v>
+      </c>
+      <c r="F82">
+        <v>0.1095678760904071</v>
+      </c>
+      <c r="G82">
+        <v>-0.09960052502826928</v>
+      </c>
+      <c r="H82">
+        <v>-0.109945304041444</v>
+      </c>
+      <c r="I82">
+        <v>0.03717471827960817</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.009481995879746826</v>
+        <v>-0.01300349388815894</v>
       </c>
       <c r="C83">
-        <v>0.05079832093848815</v>
+        <v>-0.02639117185676235</v>
       </c>
       <c r="D83">
-        <v>0.003400359320215851</v>
+        <v>-0.0307523370084286</v>
       </c>
       <c r="E83">
-        <v>-0.0548935209939105</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.07949341707383817</v>
+      </c>
+      <c r="F83">
+        <v>-0.07322854234303894</v>
+      </c>
+      <c r="G83">
+        <v>-0.02998817478037386</v>
+      </c>
+      <c r="H83">
+        <v>-0.1059091531959762</v>
+      </c>
+      <c r="I83">
+        <v>0.6720736014565544</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.001552616280455697</v>
+        <v>-0.002087703894316803</v>
       </c>
       <c r="C84">
-        <v>-0.0001737384203976039</v>
+        <v>-0.01640006999498298</v>
       </c>
       <c r="D84">
-        <v>-0.009870787862338481</v>
+        <v>-0.0424426418958529</v>
       </c>
       <c r="E84">
-        <v>0.001328566396483332</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.001650066012288802</v>
+      </c>
+      <c r="F84">
+        <v>-0.03286660927476451</v>
+      </c>
+      <c r="G84">
+        <v>-0.04899597785456168</v>
+      </c>
+      <c r="H84">
+        <v>-0.03160668575251517</v>
+      </c>
+      <c r="I84">
+        <v>-0.0661208114568331</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.138349940858233</v>
+        <v>0.05608187982399189</v>
       </c>
       <c r="C85">
-        <v>0.1411318758349729</v>
+        <v>-0.1821350609742773</v>
       </c>
       <c r="D85">
-        <v>0.04515028368072699</v>
+        <v>0.09714885659312571</v>
       </c>
       <c r="E85">
-        <v>-0.02354547488997072</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-3.275530911392114e-05</v>
+      </c>
+      <c r="F85">
+        <v>-0.07365927495442946</v>
+      </c>
+      <c r="G85">
+        <v>-0.02210909557143399</v>
+      </c>
+      <c r="H85">
+        <v>0.002494613895445114</v>
+      </c>
+      <c r="I85">
+        <v>0.06286402152118907</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.01671897992816379</v>
+        <v>0.01191364952679087</v>
       </c>
       <c r="C86">
-        <v>0.01593983703380542</v>
+        <v>-0.03659331532462058</v>
       </c>
       <c r="D86">
-        <v>-0.08376797219066404</v>
+        <v>-0.1035794253749838</v>
       </c>
       <c r="E86">
-        <v>-0.05113141407176779</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.01692481416859102</v>
+      </c>
+      <c r="F86">
+        <v>0.002275744468226576</v>
+      </c>
+      <c r="G86">
+        <v>0.01685348157192743</v>
+      </c>
+      <c r="H86">
+        <v>-0.02513080236892639</v>
+      </c>
+      <c r="I86">
+        <v>0.06200464199029244</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02085704796081225</v>
+        <v>0.01288200255506326</v>
       </c>
       <c r="C87">
-        <v>0.02673931385404185</v>
+        <v>-0.0605545162273051</v>
       </c>
       <c r="D87">
-        <v>-0.1288332745358629</v>
+        <v>-0.1401293107805629</v>
       </c>
       <c r="E87">
-        <v>-0.05657506077303381</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.01340298096732295</v>
+      </c>
+      <c r="F87">
+        <v>-0.04160149180093001</v>
+      </c>
+      <c r="G87">
+        <v>-0.04658745726905894</v>
+      </c>
+      <c r="H87">
+        <v>-0.05615615973954729</v>
+      </c>
+      <c r="I87">
+        <v>0.006432840103384531</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.05127453786538272</v>
+        <v>0.03243291367494741</v>
       </c>
       <c r="C88">
-        <v>0.04442895145540379</v>
+        <v>-0.06772834682655104</v>
       </c>
       <c r="D88">
-        <v>-0.02547725542315007</v>
+        <v>-0.01602507827242505</v>
       </c>
       <c r="E88">
-        <v>-0.03185866106145867</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02784397197710958</v>
+      </c>
+      <c r="F88">
+        <v>-0.02010401194047196</v>
+      </c>
+      <c r="G88">
+        <v>0.01316712811596841</v>
+      </c>
+      <c r="H88">
+        <v>-0.01225418294485636</v>
+      </c>
+      <c r="I88">
+        <v>0.003350569275614675</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.3276041287492346</v>
+        <v>0.4082389105451284</v>
       </c>
       <c r="C89">
-        <v>-0.3200219120550866</v>
+        <v>0.1496222151252369</v>
       </c>
       <c r="D89">
-        <v>-0.004778830918995127</v>
+        <v>-0.03139724181235974</v>
       </c>
       <c r="E89">
-        <v>-0.09817497596113277</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.0557409124233712</v>
+      </c>
+      <c r="F89">
+        <v>-0.06668591303892542</v>
+      </c>
+      <c r="G89">
+        <v>-0.01154289137947107</v>
+      </c>
+      <c r="H89">
+        <v>-0.122186439858594</v>
+      </c>
+      <c r="I89">
+        <v>-0.1552635142156893</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.2601963696239112</v>
+        <v>0.3222693156880584</v>
       </c>
       <c r="C90">
-        <v>-0.2342241264864806</v>
+        <v>0.1031558608996316</v>
       </c>
       <c r="D90">
-        <v>-0.03617236120341747</v>
+        <v>-0.03300285388823121</v>
       </c>
       <c r="E90">
-        <v>0.01409481618513931</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01002746348224782</v>
+      </c>
+      <c r="F90">
+        <v>0.007261523296577962</v>
+      </c>
+      <c r="G90">
+        <v>-0.06586950307204072</v>
+      </c>
+      <c r="H90">
+        <v>0.009621162090025346</v>
+      </c>
+      <c r="I90">
+        <v>0.08107431622600451</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.150650711966527</v>
+        <v>0.06458676904092107</v>
       </c>
       <c r="C91">
-        <v>0.1891787274662304</v>
+        <v>-0.2075013894505234</v>
       </c>
       <c r="D91">
-        <v>0.09897363573632328</v>
+        <v>0.1088741167854055</v>
       </c>
       <c r="E91">
-        <v>-0.07903573776156864</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05832845217514077</v>
+      </c>
+      <c r="F91">
+        <v>-0.06876047571744906</v>
+      </c>
+      <c r="G91">
+        <v>-0.006083440166540385</v>
+      </c>
+      <c r="H91">
+        <v>0.004115333130127904</v>
+      </c>
+      <c r="I91">
+        <v>0.08292983924060186</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.2462588635206957</v>
+        <v>0.339871770607153</v>
       </c>
       <c r="C92">
-        <v>-0.2569109055852442</v>
+        <v>0.1391903142458263</v>
       </c>
       <c r="D92">
-        <v>0.06060784749085529</v>
+        <v>-0.003982215961332991</v>
       </c>
       <c r="E92">
-        <v>-0.03834549912595826</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06343539133461999</v>
+      </c>
+      <c r="F92">
+        <v>-0.03069008620386221</v>
+      </c>
+      <c r="G92">
+        <v>-0.03029618448937011</v>
+      </c>
+      <c r="H92">
+        <v>-0.01369948454928715</v>
+      </c>
+      <c r="I92">
+        <v>-0.2382316540819969</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.2862524105255544</v>
+        <v>0.3349407544074761</v>
       </c>
       <c r="C93">
-        <v>-0.2445881361436715</v>
+        <v>0.1107895997701187</v>
       </c>
       <c r="D93">
-        <v>-0.01221709980699886</v>
+        <v>0.01769609168699919</v>
       </c>
       <c r="E93">
-        <v>-0.001021475953959076</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.02711777437625147</v>
+      </c>
+      <c r="F93">
+        <v>-0.007528963701054206</v>
+      </c>
+      <c r="G93">
+        <v>0.0111765931566331</v>
+      </c>
+      <c r="H93">
+        <v>0.005754845566160492</v>
+      </c>
+      <c r="I93">
+        <v>0.02725004643190827</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2841669202411939</v>
+        <v>0.1227537260863067</v>
       </c>
       <c r="C94">
-        <v>0.2807345702568561</v>
+        <v>-0.3478694610750936</v>
       </c>
       <c r="D94">
-        <v>0.3221813612841208</v>
+        <v>0.3574682356161503</v>
       </c>
       <c r="E94">
-        <v>0.23529117728924</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.05600666668993354</v>
+      </c>
+      <c r="F94">
+        <v>0.1076959112696202</v>
+      </c>
+      <c r="G94">
+        <v>-0.3237858932032189</v>
+      </c>
+      <c r="H94">
+        <v>0.03261480288993287</v>
+      </c>
+      <c r="I94">
+        <v>-0.2577142701528891</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.01470013645345604</v>
+        <v>0.01692766488375154</v>
       </c>
       <c r="C95">
-        <v>0.03766349045624406</v>
+        <v>-0.06302622986193369</v>
       </c>
       <c r="D95">
-        <v>0.002580942549877149</v>
+        <v>-0.09839305773712255</v>
       </c>
       <c r="E95">
-        <v>-0.07840473911304023</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1643481334141915</v>
+      </c>
+      <c r="F95">
+        <v>0.01643412556312527</v>
+      </c>
+      <c r="G95">
+        <v>0.08778061326074924</v>
+      </c>
+      <c r="H95">
+        <v>-0.3312988775275874</v>
+      </c>
+      <c r="I95">
+        <v>-0.3796201651593278</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.00113974526275476</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0008550766152723586</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0006418132968611936</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003651176584687868</v>
+      </c>
+      <c r="F97">
+        <v>-0.0005345944315161588</v>
+      </c>
+      <c r="G97">
+        <v>-0.00106381682828586</v>
+      </c>
+      <c r="H97">
+        <v>-0.004152848516362587</v>
+      </c>
+      <c r="I97">
+        <v>-0.002281752756342476</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.143882822136094</v>
+        <v>0.116315065262908</v>
       </c>
       <c r="C98">
-        <v>0.09216036114894417</v>
+        <v>-0.1563322750743758</v>
       </c>
       <c r="D98">
-        <v>-0.1699376797262311</v>
+        <v>-0.06190549050579428</v>
       </c>
       <c r="E98">
-        <v>0.1748753009095153</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.2012224918945693</v>
+      </c>
+      <c r="F98">
+        <v>0.2475873192790029</v>
+      </c>
+      <c r="G98">
+        <v>0.2793843682199872</v>
+      </c>
+      <c r="H98">
+        <v>0.1903682742010544</v>
+      </c>
+      <c r="I98">
+        <v>0.0152075567797879</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.00109860692459464</v>
+        <v>0.00161564262968936</v>
       </c>
       <c r="C101">
-        <v>0.01920355238269039</v>
+        <v>-0.03565858020665361</v>
       </c>
       <c r="D101">
-        <v>-0.09438195685741428</v>
+        <v>-0.1019355516008565</v>
       </c>
       <c r="E101">
-        <v>-0.02625810241305939</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.057364635168957</v>
+      </c>
+      <c r="F101">
+        <v>-0.04021590817205128</v>
+      </c>
+      <c r="G101">
+        <v>0.01338974841503504</v>
+      </c>
+      <c r="H101">
+        <v>-0.1389394873238681</v>
+      </c>
+      <c r="I101">
+        <v>-0.01464532891524261</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1022192394168921</v>
+        <v>0.0269529968422484</v>
       </c>
       <c r="C102">
-        <v>0.1616026633836117</v>
+        <v>-0.1484370059038872</v>
       </c>
       <c r="D102">
-        <v>0.06160630452071379</v>
+        <v>0.09939683320303572</v>
       </c>
       <c r="E102">
-        <v>0.05992419781768733</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03607846141166917</v>
+      </c>
+      <c r="F102">
+        <v>0.06406291024673932</v>
+      </c>
+      <c r="G102">
+        <v>0.004560440003833198</v>
+      </c>
+      <c r="H102">
+        <v>-0.04741090369576323</v>
+      </c>
+      <c r="I102">
+        <v>0.02354969239640626</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
